--- a/ReproBaseAPI/completion_script/validation/data/S2_AUX_for_reprocessing_baseline_ESRIN.xlsx
+++ b/ReproBaseAPI/completion_script/validation/data/S2_AUX_for_reprocessing_baseline_ESRIN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="98">
   <si>
     <t>A</t>
   </si>
@@ -220,9 +220,6 @@
     <t>20190520T050000-21000101T000000</t>
   </si>
   <si>
-    <t>20151115T000000-20160201T000000</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -308,6 +305,15 @@
   </si>
   <si>
     <t>20200204T010000-20200330T000000</t>
+  </si>
+  <si>
+    <t>20151125T000000-20160201T000000</t>
+  </si>
+  <si>
+    <t>20151115T000000-20151125T000000</t>
+  </si>
+  <si>
+    <t>S2A_OPER_GIP_R2SWIR_MPC__20160118T123902_V20151125T000000_21000101T000000_B00</t>
   </si>
 </sst>
 </file>
@@ -479,6 +485,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,20 +503,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -808,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -831,30 +845,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -867,9 +881,9 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -882,9 +896,9 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -897,116 +911,116 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>77</v>
+      <c r="B12" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>2</v>
@@ -1019,9 +1033,9 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>3</v>
@@ -1034,9 +1048,9 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -1049,116 +1063,116 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>78</v>
+      <c r="B22" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -1171,9 +1185,9 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>3</v>
@@ -1186,9 +1200,9 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
@@ -1201,116 +1215,116 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>79</v>
+      <c r="B32" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
@@ -1323,9 +1337,9 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -1338,9 +1352,9 @@
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>5</v>
@@ -1353,9 +1367,9 @@
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -1368,101 +1382,101 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>80</v>
+      <c r="B42" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2</v>
@@ -1475,9 +1489,9 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>3</v>
@@ -1490,9 +1504,9 @@
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>5</v>
@@ -1505,9 +1519,9 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -1520,101 +1534,101 @@
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>66</v>
+      <c r="B52" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>2</v>
@@ -1627,9 +1641,9 @@
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>3</v>
@@ -1642,9 +1656,9 @@
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>5</v>
@@ -1657,9 +1671,9 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>6</v>
@@ -1672,101 +1686,101 @@
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>81</v>
+      <c r="B62" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>2</v>
@@ -1779,9 +1793,9 @@
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>3</v>
@@ -1794,146 +1808,146 @@
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="14"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="15"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>82</v>
+      <c r="B72" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>3</v>
@@ -1946,24 +1960,24 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -1976,101 +1990,101 @@
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="14"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="14"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="14"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>83</v>
+      <c r="B82" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>2</v>
@@ -2083,9 +2097,9 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="14"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>3</v>
@@ -2098,9 +2112,9 @@
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="14"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>5</v>
@@ -2113,131 +2127,131 @@
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="14"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>84</v>
+      <c r="B92" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="14"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>3</v>
@@ -2250,9 +2264,9 @@
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>5</v>
@@ -2265,9 +2279,9 @@
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="14"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -2280,101 +2294,101 @@
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="14"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="14"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="15"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D101" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>85</v>
+      <c r="B102" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>2</v>
@@ -2387,9 +2401,9 @@
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="14"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>3</v>
@@ -2402,24 +2416,24 @@
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="14"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="14"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -2432,116 +2446,116 @@
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="14"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="14"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="14"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="14"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="15"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>86</v>
+      <c r="B112" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="14"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>3</v>
@@ -2554,9 +2568,9 @@
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="14"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>5</v>
@@ -2569,9 +2583,9 @@
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="14"/>
+      <c r="B115" s="11"/>
       <c r="C115" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -2584,101 +2598,101 @@
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="14"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="14"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="14"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="14"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="15"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D121" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>87</v>
+      <c r="B122" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>2</v>
@@ -2691,24 +2705,24 @@
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="14"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>5</v>
@@ -2721,9 +2735,9 @@
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="14"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -2736,101 +2750,101 @@
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="14"/>
+      <c r="B127" s="11"/>
       <c r="C127" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="14"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="14"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="15"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>88</v>
+      <c r="B132" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>2</v>
@@ -2843,9 +2857,9 @@
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>3</v>
@@ -2858,9 +2872,9 @@
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="14"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>5</v>
@@ -2873,116 +2887,116 @@
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="14"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="14"/>
+      <c r="B136" s="11"/>
       <c r="C136" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="14"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="14"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="14"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="15"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>89</v>
+      <c r="B142" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>2</v>
@@ -2995,24 +3009,24 @@
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="14"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="14"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>5</v>
@@ -3025,9 +3039,9 @@
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="14"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -3040,101 +3054,101 @@
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="14"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="14"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="14"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="14"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="15"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D151" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>65</v>
+      <c r="B152" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>2</v>
@@ -3147,9 +3161,9 @@
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="14"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>3</v>
@@ -3162,9 +3176,9 @@
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="14"/>
+      <c r="B154" s="11"/>
       <c r="C154" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>5</v>
@@ -3177,125 +3191,278 @@
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="14"/>
+      <c r="B155" s="11"/>
       <c r="C155" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="11"/>
       <c r="C156" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="14"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="14"/>
+      <c r="B158" s="11"/>
       <c r="C158" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="14"/>
+      <c r="B159" s="11"/>
       <c r="C159" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="14"/>
+      <c r="B160" s="11"/>
       <c r="C160" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="15"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E161" s="9" t="s">
+    </row>
+    <row r="162" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D171" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B152:B161"/>
-    <mergeCell ref="B92:B101"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="B112:B121"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="B72:B81"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B142:B151"/>
+  <mergeCells count="17">
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="B92:B101"/>
+    <mergeCell ref="B152:B161"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B142:B151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3318,30 +3485,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -3354,9 +3521,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -3369,9 +3536,9 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -3384,9 +3551,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -3399,101 +3566,101 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>2</v>
@@ -3506,9 +3673,9 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>3</v>
@@ -3521,9 +3688,9 @@
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -3536,9 +3703,9 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
@@ -3551,101 +3718,101 @@
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -3658,9 +3825,9 @@
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>3</v>
@@ -3673,9 +3840,9 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
@@ -3688,9 +3855,9 @@
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -3703,101 +3870,101 @@
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>90</v>
+      <c r="B32" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
@@ -3810,9 +3977,9 @@
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>3</v>
@@ -3825,9 +3992,9 @@
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>5</v>
@@ -3840,9 +4007,9 @@
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -3855,101 +4022,101 @@
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>91</v>
+      <c r="B42" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2</v>
@@ -3962,9 +4129,9 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>3</v>
@@ -3977,9 +4144,9 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>5</v>
@@ -3992,9 +4159,9 @@
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -4007,101 +4174,101 @@
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>2</v>
@@ -4114,9 +4281,9 @@
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>3</v>
@@ -4129,9 +4296,9 @@
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>5</v>
@@ -4144,9 +4311,9 @@
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>6</v>
@@ -4159,101 +4326,101 @@
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>2</v>
@@ -4266,9 +4433,9 @@
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>3</v>
@@ -4281,9 +4448,9 @@
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>5</v>
@@ -4296,9 +4463,9 @@
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -4311,101 +4478,101 @@
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>92</v>
+      <c r="B72" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>2</v>
@@ -4418,9 +4585,9 @@
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="11"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>3</v>
@@ -4433,9 +4600,9 @@
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>5</v>
@@ -4448,9 +4615,9 @@
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -4463,101 +4630,101 @@
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>93</v>
+      <c r="B82" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>2</v>
@@ -4570,9 +4737,9 @@
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>3</v>
@@ -4585,9 +4752,9 @@
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>5</v>
@@ -4600,9 +4767,9 @@
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -4615,101 +4782,101 @@
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="11"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="12"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>2</v>
@@ -4722,9 +4889,9 @@
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>3</v>
@@ -4737,9 +4904,9 @@
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>5</v>
@@ -4752,9 +4919,9 @@
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -4767,101 +4934,101 @@
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D101" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>2</v>
@@ -4874,9 +5041,9 @@
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="11"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>3</v>
@@ -4889,9 +5056,9 @@
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>5</v>
@@ -4904,9 +5071,9 @@
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -4919,101 +5086,101 @@
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="11"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="11"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>2</v>
@@ -5026,9 +5193,9 @@
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="11"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>3</v>
@@ -5041,9 +5208,9 @@
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="11"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>5</v>
@@ -5056,9 +5223,9 @@
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -5071,101 +5238,101 @@
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="11"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="11"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="11"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="11"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="11"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D121" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>2</v>
@@ -5178,9 +5345,9 @@
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>3</v>
@@ -5193,9 +5360,9 @@
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="11"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>5</v>
@@ -5208,9 +5375,9 @@
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="11"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -5223,101 +5390,101 @@
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="11"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="11"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="11"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="11"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="12"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>2</v>
@@ -5330,9 +5497,9 @@
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="11"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>3</v>
@@ -5345,9 +5512,9 @@
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="11"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>5</v>
@@ -5360,9 +5527,9 @@
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="11"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -5375,101 +5542,101 @@
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="11"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="11"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="11"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B139" s="11"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>94</v>
+      <c r="B142" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>2</v>
@@ -5482,9 +5649,9 @@
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="11"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>3</v>
@@ -5497,9 +5664,9 @@
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B144" s="11"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>5</v>
@@ -5512,9 +5679,9 @@
       <c r="A145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="11"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -5527,101 +5694,101 @@
       <c r="A146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="11"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="11"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B148" s="11"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="11"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="11"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D151" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>95</v>
+      <c r="B152" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>2</v>
@@ -5634,9 +5801,9 @@
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="11"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>3</v>
@@ -5649,9 +5816,9 @@
       <c r="A154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B154" s="11"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>5</v>
@@ -5664,9 +5831,9 @@
       <c r="A155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B155" s="11"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -5679,101 +5846,101 @@
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B156" s="11"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="11"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B158" s="11"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B159" s="11"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="11"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="12"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>2</v>
@@ -5786,9 +5953,9 @@
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="11"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>3</v>
@@ -5801,9 +5968,9 @@
       <c r="A164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="11"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>5</v>
@@ -5816,9 +5983,9 @@
       <c r="A165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="11"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -5831,99 +5998,94 @@
       <c r="A166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="11"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B167" s="11"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B168" s="11"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B169" s="11"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B170" s="11"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="12"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D171" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B142:B151"/>
-    <mergeCell ref="B152:B161"/>
-    <mergeCell ref="B162:B171"/>
     <mergeCell ref="B112:B121"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B21"/>
@@ -5936,6 +6098,11 @@
     <mergeCell ref="B82:B91"/>
     <mergeCell ref="B92:B101"/>
     <mergeCell ref="B102:B111"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B142:B151"/>
+    <mergeCell ref="B152:B161"/>
+    <mergeCell ref="B162:B171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
